--- a/StructureDefinition-correct-answers.xlsx
+++ b/StructureDefinition-correct-answers.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-28T12:50:40+00:00</t>
+    <t>2024-02-28T12:55:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-correct-answers.xlsx
+++ b/StructureDefinition-correct-answers.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-28T12:55:15+00:00</t>
+    <t>2024-02-28T13:25:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-correct-answers.xlsx
+++ b/StructureDefinition-correct-answers.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-28T13:25:24+00:00</t>
+    <t>2024-02-28T13:32:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-correct-answers.xlsx
+++ b/StructureDefinition-correct-answers.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-28T13:32:51+00:00</t>
+    <t>2024-02-28T13:41:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-correct-answers.xlsx
+++ b/StructureDefinition-correct-answers.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-28T13:41:48+00:00</t>
+    <t>2024-02-28T13:47:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-correct-answers.xlsx
+++ b/StructureDefinition-correct-answers.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-28T13:47:23+00:00</t>
+    <t>2024-02-28T14:06:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-correct-answers.xlsx
+++ b/StructureDefinition-correct-answers.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-28T14:06:11+00:00</t>
+    <t>2024-04-29T11:45:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Charité (https://www.charite.de/)</t>
   </si>
   <si>
     <t>Description</t>

--- a/StructureDefinition-correct-answers.xlsx
+++ b/StructureDefinition-correct-answers.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-29T11:45:31+00:00</t>
+    <t>2024-05-07T10:07:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
